--- a/biology/Médecine/Cavographie/Cavographie.xlsx
+++ b/biology/Médecine/Cavographie/Cavographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavographie est un examen radiologique de la veine cave.
 Cette veine, d'un diamètre important, transporte le sang des organes vers le cœur. L'examen nécessite l'injection d'un produit de contraste dans la veine fémorale, ou dans une veine périphérique.
